--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_capstone_1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF83D87E-1CE4-43EC-B8D7-0CDC41927602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABA1791-BBFB-4F5D-AF57-F812AC29708F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>ErrorInSHA1Page</t>
+  </si>
+  <si>
+    <t>InvalidCredentials</t>
+  </si>
+  <si>
+    <t>Username and password is invalid</t>
   </si>
 </sst>
 </file>
@@ -576,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1700,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1890,7 +1896,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
